--- a/2020Oct26_VT2Report _ 360Degree.xlsx
+++ b/2020Oct26_VT2Report _ 360Degree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LG\Docs &amp; VT Info\KPI &amp;Probation\2020\Caring\Survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4812,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10261,7 +10261,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z59"/>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:M1"/>
@@ -16410,7 +16409,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="144" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>487</v>
       </c>
